--- a/medicine/Soins infirmiers et profession infirmière/Pôle_Santé_Sarthe_et_Loir/Pôle_Santé_Sarthe_et_Loir.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Pôle_Santé_Sarthe_et_Loir/Pôle_Santé_Sarthe_et_Loir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%B4le_Sant%C3%A9_Sarthe_et_Loir</t>
+          <t>Pôle_Santé_Sarthe_et_Loir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Pôle Santé Sarthe et Loir, est un établissement français de santé publique de la Sarthe, composé d'un centre hospitalier situé sur la commune du Bailleul, de deux EHPAD (La Flèche et Sablé-sur-Sarthe) et d'un foyer d'accueil pour adultes handicapés (Sablé-sur-Sarthe). 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P%C3%B4le_Sant%C3%A9_Sarthe_et_Loir</t>
+          <t>Pôle_Santé_Sarthe_et_Loir</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Origines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La réunification des deux centres hospitaliers de La Flèche et Sablé a commencé bien avant octobre 2007, par souci de réunification des infrastructures.
 Pendant sept ans, les deux hôpitaux  traitaient les patients pour des différents soins. Le site du Bailleul, est choisi pour centraliser les soins dans un hôpital polyvalent en matière de soins à mi-chemin des deux villes. En 2004, les travaux du nouveau centre hospitalier commencent.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>P%C3%B4le_Sant%C3%A9_Sarthe_et_Loir</t>
+          <t>Pôle_Santé_Sarthe_et_Loir</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Pôles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'hôpital contient des différents pôles de soins hérités des deux hôpitaux fusionnés :
 Pôle Médecine - Soins de Suite et Réadaptation
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>P%C3%B4le_Sant%C3%A9_Sarthe_et_Loir</t>
+          <t>Pôle_Santé_Sarthe_et_Loir</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Chiffres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Surface : 31,000 m2
 Employés : Plus de 1 000 employés répartis sur trois lieux dont 848 à temps plein
